--- a/dataset_v1/task_sheet_answers/PricingTable/5_PricingTable/5_PricingTable_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/PricingTable/5_PricingTable/5_PricingTable_gt1.xlsx
@@ -1,115 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers\PricingTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48DA4CA-901C-403F-9F22-DBCD94A6F464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9312" windowHeight="12360" xr2:uid="{8C898194-A6C7-41B7-8D42-478BF846A25D}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12360" windowWidth="9312" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Pricing Table" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Pricing Table" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Number of Rolls</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Units From</t>
-  </si>
-  <si>
-    <t>Units To</t>
-  </si>
-  <si>
-    <t>Price per Roll (100 feet)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt formatCode="&quot;$&quot;#,##0.00" numFmtId="164"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="0"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -146,45 +109,106 @@
     </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="8">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D061BE7F-2528-4C02-9F5E-5538DDFFE9AC}"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{E58C78FF-B15D-40A8-BBF9-3F709A7F35FF}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{15B4D68E-070A-4A56-AFE4-0CE66B0D12F4}"/>
-    <cellStyle name="Percent 2" xfId="3" xr:uid="{04C6547D-B7EB-473A-A22A-8F2761E941E4}"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Percent 2" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -484,406 +508,426 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1C4061-63EE-445F-A87A-D4548BBFA644}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="6" width="14.5546875"/>
+    <col customWidth="1" max="2" min="2" style="6" width="16.21875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Number of Rolls</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n">
         <v>42263</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>540</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <f>VLOOKUP(B2,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
         <v>42262</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>360</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <f>VLOOKUP(B3,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
         <v>42263</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <f>VLOOKUP(B4,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
         <v>42262</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>468</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <f>VLOOKUP(B5,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
         <v>42264</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <f>VLOOKUP(B6,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
         <v>42265</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <f>VLOOKUP(B7,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
         <v>42264</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>540</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <f>VLOOKUP(B8,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
         <v>42265</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>492</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <f>VLOOKUP(B9,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
         <v>42265</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>204</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <f>VLOOKUP(B10,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
         <v>42262</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>408</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <f>VLOOKUP(B11,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
         <v>42264</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>780</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <f>VLOOKUP(B12,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
         <v>42263</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>444</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <f>VLOOKUP(B13,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
         <v>42262</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>432</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <f>VLOOKUP(B14,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
         <v>42263</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>456</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0">
         <f>VLOOKUP(B15,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
         <v>42263</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>768</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <f>VLOOKUP(B16,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
         <v>42264</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>528</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0">
         <f>VLOOKUP(B17,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
         <v>42262</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>624</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <f>VLOOKUP(B18,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
         <v>42264</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>372</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <f>VLOOKUP(B19,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
         <v>42265</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>588</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0">
         <f>VLOOKUP(B20,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
         <v>42262</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0">
         <f>VLOOKUP(B21,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n">
         <v>42263</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0">
         <f>VLOOKUP(B22,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n">
         <v>42265</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>660</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0">
         <f>VLOOKUP(B23,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n">
         <v>42263</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>468</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0">
         <f>VLOOKUP(B24,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n">
         <v>42265</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>492</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0">
         <f>VLOOKUP(B25,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n">
         <v>42265</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>204</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0">
         <f>VLOOKUP(B26,'Pricing Table'!$A$2:$C$5,3)</f>
-        <v>187</v>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B1DC08-2958-4041-9D31-10E25C3E8DCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="A1" sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row customHeight="1" ht="62.4" r="1" s="6">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Units From</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Units To</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Price per Roll (100 feet)</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.6" r="2" s="6">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7" t="n">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row customHeight="1" ht="15.6" r="3" s="6">
+      <c r="A3" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7" t="n">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row customHeight="1" ht="15.6" r="4" s="6">
+      <c r="A4" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="n">
         <v>577</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7" t="n">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row customHeight="1" ht="15.6" r="5" s="6">
+      <c r="A5" s="1" t="n">
         <v>578</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="n">
         <v>999</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7" t="n">
         <v>152</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>